--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_20-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_20-21.xlsx
@@ -41,12 +41,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -59,9 +65,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>CANDALKAN 8MG 14 TAB</t>
   </si>
   <si>
+    <t>CAPIXY HAIR TONIC SPRAY 250 ML</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -254,6 +260,9 @@
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
     <t>NOVOCOBAL 1 MG 30 SUBLINGUAL TABS.</t>
   </si>
   <si>
@@ -383,6 +392,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VIVIDOL HAIR CREAM 100 GM</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 50 GM</t>
   </si>
   <si>
@@ -402,6 +414,9 @@
   </si>
   <si>
     <t>14:0</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/10MG 30 TABLETS</t>
   </si>
   <si>
     <t>بيبي جوي رقم 5</t>
@@ -1101,11 +1116,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -1113,7 +1128,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1121,17 +1136,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1153,11 +1168,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1165,7 +1180,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1173,17 +1188,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1199,13 +1214,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1225,13 +1240,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -1251,13 +1266,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1269,7 +1284,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1277,17 +1292,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1303,17 +1318,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1329,13 +1344,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1355,17 +1370,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>138</v>
+        <v>367.5</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1381,13 +1396,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1407,17 +1422,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1433,17 +1448,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>47.039999999999999</v>
+        <v>89</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1451,7 +1466,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1459,13 +1474,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1477,7 +1492,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1485,17 +1500,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>21</v>
+        <v>47.039999999999999</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1503,7 +1518,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1511,17 +1526,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1529,7 +1544,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1537,17 +1552,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1555,7 +1570,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1563,17 +1578,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1581,7 +1596,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1589,13 +1604,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1607,7 +1622,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1615,13 +1630,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1633,7 +1648,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1641,17 +1656,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1667,13 +1682,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>-220</v>
+        <v>87</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1693,17 +1708,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>-60</v>
+        <v>52</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1711,7 +1726,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1725,7 +1740,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>26</v>
+        <v>-220</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1737,7 +1752,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1745,13 +1760,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>78</v>
+        <v>-60</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1777,7 +1792,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1797,17 +1812,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1815,7 +1830,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1829,11 +1844,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1841,7 +1856,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1849,17 +1864,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>147.5</v>
+        <v>8</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1875,17 +1890,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1901,17 +1916,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>17</v>
+        <v>147.5</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1927,17 +1942,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1953,13 +1968,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1979,17 +1994,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>30.670000000000002</v>
+        <v>17</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2005,17 +2020,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2023,7 +2038,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2031,17 +2046,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>24</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2049,7 +2064,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2057,13 +2072,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2075,7 +2090,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2083,13 +2098,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2109,17 +2124,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2135,13 +2150,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2167,11 +2182,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2187,13 +2202,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2213,17 +2228,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2231,7 +2246,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2239,13 +2254,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2257,7 +2272,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2265,17 +2280,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2291,13 +2306,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2317,17 +2332,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2343,17 +2358,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2369,17 +2384,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2387,7 +2402,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2395,17 +2410,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2413,7 +2428,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2421,17 +2436,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2447,17 +2462,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2479,11 +2494,11 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2499,17 +2514,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2517,7 +2532,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2525,13 +2540,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>19.5</v>
+        <v>68</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2543,7 +2558,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2551,17 +2566,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2569,7 +2584,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2577,17 +2592,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2595,7 +2610,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2603,13 +2618,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2621,7 +2636,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2629,17 +2644,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2647,7 +2662,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2655,17 +2670,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2673,7 +2688,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2681,17 +2696,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2699,7 +2714,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2707,17 +2722,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2725,7 +2740,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2733,7 +2748,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
@@ -2751,7 +2766,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2759,17 +2774,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2777,7 +2792,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2785,17 +2800,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2811,17 +2826,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2837,13 +2852,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2863,17 +2878,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2889,13 +2904,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2915,17 +2930,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2933,7 +2948,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2941,17 +2956,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2959,7 +2974,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2967,17 +2982,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>20.399999999999999</v>
+        <v>69</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2985,7 +3000,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2993,17 +3008,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3011,7 +3026,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3019,17 +3034,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3037,7 +3052,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3045,17 +3060,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>175</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3063,7 +3078,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3071,17 +3086,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>149.5</v>
+        <v>26</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3097,17 +3112,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3123,17 +3138,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3149,17 +3164,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>-17.09</v>
+        <v>149.5</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3175,13 +3190,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3201,17 +3216,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3227,13 +3242,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>18</v>
+        <v>-17.09</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3253,13 +3268,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3279,13 +3294,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3305,7 +3320,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -3315,7 +3330,7 @@
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3331,17 +3346,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>32.5</v>
+        <v>31</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3357,13 +3372,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3383,17 +3398,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3409,17 +3424,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>5</v>
+        <v>32.5</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3427,7 +3442,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3435,13 +3450,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3453,7 +3468,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3461,17 +3476,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>66.640000000000001</v>
+        <v>170</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3479,7 +3494,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3487,13 +3502,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3505,7 +3520,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3513,17 +3528,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>-375</v>
+        <v>5</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3531,7 +3546,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3539,13 +3554,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3557,7 +3572,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3571,11 +3586,11 @@
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>25</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3583,7 +3598,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3591,17 +3606,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3617,17 +3632,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>40</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3643,17 +3658,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>29.879999999999999</v>
+        <v>-375</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>138</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3661,7 +3676,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3669,13 +3684,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3687,7 +3702,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3695,13 +3710,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>188.09999999999999</v>
+        <v>25</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3713,7 +3728,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3721,17 +3736,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3739,7 +3754,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3747,13 +3762,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3765,7 +3780,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3773,17 +3788,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>210</v>
+        <v>29.879999999999999</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3799,13 +3814,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3825,13 +3840,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>15</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3843,7 +3858,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3851,17 +3866,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3869,7 +3884,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3877,13 +3892,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3895,7 +3910,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3903,13 +3918,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3921,7 +3936,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3929,13 +3944,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3947,7 +3962,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3955,13 +3970,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -3981,13 +3996,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
@@ -4007,13 +4022,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4033,51 +4048,181 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="K119" s="10">
-        <v>4650.6400000000003</v>
-      </c>
-      <c r="L119" s="10"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="10"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="11">
+    <row r="119" ht="24.75" customHeight="1">
+      <c r="A119" s="6">
+        <v>116</v>
+      </c>
+      <c t="s" r="B119" s="7">
+        <v>155</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c t="s" r="H119" s="8">
+        <v>48</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="9">
+        <v>20</v>
+      </c>
+      <c r="M119" s="9"/>
+      <c t="s" r="N119" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" ht="25.5" customHeight="1">
+      <c r="A120" s="6">
+        <v>117</v>
+      </c>
+      <c t="s" r="B120" s="7">
         <v>156</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c t="s" r="F120" s="12">
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c t="s" r="H120" s="8">
+        <v>79</v>
+      </c>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="9">
+        <v>35</v>
+      </c>
+      <c r="M120" s="9"/>
+      <c t="s" r="N120" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" ht="24.75" customHeight="1">
+      <c r="A121" s="6">
+        <v>118</v>
+      </c>
+      <c t="s" r="B121" s="7">
         <v>157</v>
       </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="13"/>
-      <c t="s" r="I120" s="14">
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c t="s" r="H121" s="8">
+        <v>97</v>
+      </c>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="9">
+        <v>25</v>
+      </c>
+      <c r="M121" s="9"/>
+      <c t="s" r="N121" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="6">
+        <v>119</v>
+      </c>
+      <c t="s" r="B122" s="7">
         <v>158</v>
       </c>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c t="s" r="H122" s="8">
+        <v>12</v>
+      </c>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="9">
+        <v>20</v>
+      </c>
+      <c r="M122" s="9"/>
+      <c t="s" r="N122" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" ht="25.5" customHeight="1">
+      <c r="A123" s="6">
+        <v>120</v>
+      </c>
+      <c t="s" r="B123" s="7">
+        <v>159</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c t="s" r="H123" s="8">
+        <v>160</v>
+      </c>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="9">
+        <v>45</v>
+      </c>
+      <c r="M123" s="9"/>
+      <c t="s" r="N123" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="K124" s="10">
+        <v>5359.1000000000004</v>
+      </c>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="11">
+        <v>161</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c t="s" r="F125" s="12">
+        <v>162</v>
+      </c>
+      <c r="G125" s="12"/>
+      <c r="H125" s="13"/>
+      <c t="s" r="I125" s="14">
+        <v>163</v>
+      </c>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="356">
+  <mergeCells count="371">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4430,10 +4575,25 @@
     <mergeCell ref="B118:G118"/>
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
-    <mergeCell ref="K119:N119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="I120:N120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="K124:N124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="I125:N125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
